--- a/Model_rez_235/Hist_IR_Ridge_235.xlsx
+++ b/Model_rez_235/Hist_IR_Ridge_235.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>PredictReturn</t>
   </si>
@@ -28,160 +28,112 @@
     <t>Date</t>
   </si>
   <si>
-    <t>297.192061428</t>
-  </si>
-  <si>
-    <t>280.06228408</t>
-  </si>
-  <si>
-    <t>510.791865089</t>
-  </si>
-  <si>
-    <t>251.459026329</t>
-  </si>
-  <si>
-    <t>150.241148372</t>
-  </si>
-  <si>
-    <t>272.97294579</t>
-  </si>
-  <si>
-    <t>530.669979599</t>
-  </si>
-  <si>
-    <t>247.534682769</t>
-  </si>
-  <si>
-    <t>256.367222843</t>
-  </si>
-  <si>
-    <t>195.480047027</t>
-  </si>
-  <si>
-    <t>402.014916449</t>
-  </si>
-  <si>
-    <t>250.770750371</t>
-  </si>
-  <si>
-    <t>215.841225101</t>
+    <t>209.473635178</t>
+  </si>
+  <si>
+    <t>258.063465351</t>
+  </si>
+  <si>
+    <t>595.474248434</t>
+  </si>
+  <si>
+    <t>242.975275781</t>
+  </si>
+  <si>
+    <t>248.913687195</t>
+  </si>
+  <si>
+    <t>271.406140882</t>
+  </si>
+  <si>
+    <t>286.923025122</t>
+  </si>
+  <si>
+    <t>762.955712784</t>
+  </si>
+  <si>
+    <t>242.199144604</t>
+  </si>
+  <si>
+    <t>217.0452843</t>
+  </si>
+  <si>
+    <t>267.80510394</t>
+  </si>
+  <si>
+    <t>694.9256796</t>
+  </si>
+  <si>
+    <t>205.82301636</t>
+  </si>
+  <si>
+    <t>258.3132768</t>
+  </si>
+  <si>
+    <t>276.991281</t>
   </si>
   <si>
     <t>290.4418854</t>
   </si>
   <si>
-    <t>276.991281</t>
-  </si>
-  <si>
-    <t>506.38597146</t>
-  </si>
-  <si>
-    <t>234.78469965</t>
-  </si>
-  <si>
-    <t>111.47134869</t>
-  </si>
-  <si>
-    <t>262.84361976</t>
-  </si>
-  <si>
-    <t>485.392311</t>
-  </si>
-  <si>
-    <t>257.5668924</t>
-  </si>
-  <si>
-    <t>267.80510394</t>
-  </si>
-  <si>
-    <t>211.2995817</t>
-  </si>
-  <si>
-    <t>436.76307846</t>
-  </si>
-  <si>
-    <t>258.3132768</t>
-  </si>
-  <si>
-    <t>217.0452843</t>
-  </si>
-  <si>
-    <t>-6.75017602811</t>
-  </si>
-  <si>
-    <t>-3.07100308004</t>
-  </si>
-  <si>
-    <t>-4.40589362863</t>
-  </si>
-  <si>
-    <t>-16.6743266786</t>
-  </si>
-  <si>
-    <t>-38.7697996822</t>
-  </si>
-  <si>
-    <t>-10.1293260297</t>
-  </si>
-  <si>
-    <t>-45.2776685989</t>
-  </si>
-  <si>
-    <t>10.0322096311</t>
-  </si>
-  <si>
-    <t>11.4378810975</t>
-  </si>
-  <si>
-    <t>15.8195346729</t>
-  </si>
-  <si>
-    <t>34.7481620108</t>
-  </si>
-  <si>
-    <t>7.54252642948</t>
-  </si>
-  <si>
-    <t>1.20405919919</t>
+    <t>757.6436421</t>
+  </si>
+  <si>
+    <t>209.8981179</t>
+  </si>
+  <si>
+    <t>7.57164912156</t>
+  </si>
+  <si>
+    <t>9.7416385888</t>
+  </si>
+  <si>
+    <t>99.4514311657</t>
+  </si>
+  <si>
+    <t>-37.1522594207</t>
+  </si>
+  <si>
+    <t>9.39958960455</t>
+  </si>
+  <si>
+    <t>5.5851401183</t>
+  </si>
+  <si>
+    <t>3.51886027798</t>
+  </si>
+  <si>
+    <t>-5.31207068445</t>
+  </si>
+  <si>
+    <t>-32.301026704</t>
+  </si>
+  <si>
+    <t>2017-05-05</t>
+  </si>
+  <si>
+    <t>2017-05-18</t>
+  </si>
+  <si>
+    <t>2017-04-10</t>
+  </si>
+  <si>
+    <t>2017-05-25</t>
+  </si>
+  <si>
+    <t>2017-05-08</t>
+  </si>
+  <si>
+    <t>2017-05-06</t>
   </si>
   <si>
     <t>2017-05-10</t>
   </si>
   <si>
-    <t>2017-05-06</t>
-  </si>
-  <si>
-    <t>2017-04-14</t>
-  </si>
-  <si>
-    <t>2017-05-23</t>
-  </si>
-  <si>
-    <t>2017-05-29</t>
-  </si>
-  <si>
-    <t>2017-05-19</t>
-  </si>
-  <si>
-    <t>2017-04-16</t>
-  </si>
-  <si>
-    <t>2017-05-20</t>
-  </si>
-  <si>
-    <t>2017-05-18</t>
-  </si>
-  <si>
-    <t>2017-05-09</t>
-  </si>
-  <si>
-    <t>2017-04-18</t>
-  </si>
-  <si>
-    <t>2017-05-08</t>
-  </si>
-  <si>
-    <t>2017-05-05</t>
+    <t>2017-04-11</t>
+  </si>
+  <si>
+    <t>2017-05-24</t>
   </si>
 </sst>
 </file>
@@ -539,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -567,13 +519,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -584,13 +536,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -601,13 +553,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -618,13 +570,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -635,13 +587,13 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -652,13 +604,13 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -669,13 +621,13 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -686,13 +638,13 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -703,81 +655,13 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
         <v>39</v>
-      </c>
-      <c r="E11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
